--- a/research/Monte_carlo/output/sensitivity_results_ah.xlsx
+++ b/research/Monte_carlo/output/sensitivity_results_ah.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kwrwater-my.sharepoint.com/personal/alex_hockin_kwrwater_nl/Documents/VEWIN Permatie/pipepermcalc/research/Monte_carlo/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{7C7A11E7-05F4-4766-BAD6-1511F0B61823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE093FB6-5A85-4D21-A153-BF1DFD517D06}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="8_{7C7A11E7-05F4-4766-BAD6-1511F0B61823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1975471-7768-4406-901A-068DDBED416E}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5280" yWindow="5280" windowWidth="28800" windowHeight="15560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="21140" xr2:uid="{C486AE53-46A5-4362-BBA6-892B3CC183FF}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C486AE53-46A5-4362-BBA6-892B3CC183FF}"/>
   </bookViews>
   <sheets>
     <sheet name="ah_analysis" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="mean_std" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ah_analysis!$A$2:$K$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ah_analysis!$A$4:$K$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="43">
   <si>
     <t>median_values</t>
   </si>
@@ -153,6 +153,27 @@
   <si>
     <t>st. dev/ median</t>
   </si>
+  <si>
+    <t>Log Dp</t>
+  </si>
+  <si>
+    <t>Literatuur</t>
+  </si>
+  <si>
+    <t>Column: Z</t>
+  </si>
+  <si>
+    <t>From: 20160703 Database labmetingen.xlsx, sheet: PermDbase</t>
+  </si>
+  <si>
+    <t>Column: X</t>
+  </si>
+  <si>
+    <t>Median conc. g/m3</t>
+  </si>
+  <si>
+    <t>ug/m3</t>
+  </si>
 </sst>
 </file>
 
@@ -164,7 +185,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.000000000000000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,16 +197,19 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFF1F1F1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -193,8 +217,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="29">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,6 +370,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -382,10 +418,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -414,9 +451,6 @@
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -434,8 +468,16 @@
     <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="5" fillId="29" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -477,7 +519,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ah_analysis!$H$1:$H$2</c:f>
+              <c:f>ah_analysis!$H$3:$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -501,51 +543,51 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ah_analysis!$B$3:$B$14</c:f>
+              <c:f>ah_analysis!$B$5:$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>concentration_soil</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>log_Dp_ref</c:v>
+                  <c:v>pipe_length</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>log_Kpw_ref</c:v>
+                  <c:v>length_fraction_middle_point</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>length_plume</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>length_fraction_middle_point</c:v>
+                  <c:v>inner_diameter</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>pipe_length</c:v>
+                  <c:v>flow_rate</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>flow_rate</c:v>
+                  <c:v>log_Dp_ref</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>log_Kpw_ref</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>DIFFUSION_A_C</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>PARTITIONING_A_C</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>partitioning_enthalpie</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>activattion_energy</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>inner_diameter</c:v>
+                  <c:v>partitioning_enthalpie</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ah_analysis!$H$3:$H$14</c:f>
+              <c:f>ah_analysis!$H$5:$H$16</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="12"/>
@@ -553,37 +595,37 @@
                   <c:v>1.0000041339599974E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9999999999969003E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0000000000000009E-2</c:v>
+                  <c:v>2.237776462995944E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7.7622235370029546E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.237776462995944E-3</c:v>
+                  <c:v>1.0000000000000009E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-9.8993108362198656E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9.8993108362198656E-3</c:v>
+                  <c:v>9.9999999999969003E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1.0000000000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>-8.9846846008283521E-3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>-2.3907392281150575E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1.645131120247445E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-6.9985282468018051E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0000000000000009E-2</c:v>
+                  <c:v>-1.645131120247445E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -599,7 +641,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>ah_analysis!$I$1:$I$2</c:f>
+              <c:f>ah_analysis!$I$3:$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -623,51 +665,51 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ah_analysis!$B$3:$B$14</c:f>
+              <c:f>ah_analysis!$B$5:$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>concentration_soil</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>log_Dp_ref</c:v>
+                  <c:v>pipe_length</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>log_Kpw_ref</c:v>
+                  <c:v>length_fraction_middle_point</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>length_plume</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>length_fraction_middle_point</c:v>
+                  <c:v>inner_diameter</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>pipe_length</c:v>
+                  <c:v>flow_rate</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>flow_rate</c:v>
+                  <c:v>log_Dp_ref</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>log_Kpw_ref</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>DIFFUSION_A_C</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>PARTITIONING_A_C</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>partitioning_enthalpie</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>activattion_energy</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>inner_diameter</c:v>
+                  <c:v>partitioning_enthalpie</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ah_analysis!$I$3:$I$14</c:f>
+              <c:f>ah_analysis!$I$5:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
@@ -675,37 +717,37 @@
                   <c:v>214.31220342337801</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5692766784704919</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.060289114984458</c:v>
+                  <c:v>0.13046945923587394</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.89096548582243895</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13046945923587394</c:v>
+                  <c:v>0.15688539881149599</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-0.37248915446017083</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.37248915446017083</c:v>
+                  <c:v>0.5692766784704919</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1.060289114984458</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>-8.4431097007306444E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>-0.20759470666384816</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.21607330305566463</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-0.19519123698429797</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.15688539881149599</c:v>
+                  <c:v>-0.21607330305566463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -721,7 +763,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>ah_analysis!$J$1:$J$2</c:f>
+              <c:f>ah_analysis!$J$3:$J$4</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -745,51 +787,51 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ah_analysis!$B$3:$B$14</c:f>
+              <c:f>ah_analysis!$B$5:$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>concentration_soil</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>log_Dp_ref</c:v>
+                  <c:v>pipe_length</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>log_Kpw_ref</c:v>
+                  <c:v>length_fraction_middle_point</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>length_plume</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>length_fraction_middle_point</c:v>
+                  <c:v>inner_diameter</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>pipe_length</c:v>
+                  <c:v>flow_rate</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>flow_rate</c:v>
+                  <c:v>log_Dp_ref</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>log_Kpw_ref</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>DIFFUSION_A_C</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>PARTITIONING_A_C</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>partitioning_enthalpie</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>activattion_energy</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>inner_diameter</c:v>
+                  <c:v>partitioning_enthalpie</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ah_analysis!$J$3:$J$14</c:f>
+              <c:f>ah_analysis!$J$5:$J$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
@@ -797,37 +839,37 @@
                   <c:v>1.0000024343072011E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3078731950581002E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6292432221419748E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-9.9009900990103539E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6.3078731950581002E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>2.6292432221419748E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>-5.6883187796206158E-3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>-6.3152103988262098E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-4.3439676924172943E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-4.4294663249221378E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-9.9009900990103539E-3</c:v>
+                  <c:v>-4.3439676924172943E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -843,7 +885,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>ah_analysis!$K$1:$K$2</c:f>
+              <c:f>ah_analysis!$K$3:$K$4</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -867,51 +909,51 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ah_analysis!$B$3:$B$14</c:f>
+              <c:f>ah_analysis!$B$5:$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>concentration_soil</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>log_Dp_ref</c:v>
+                  <c:v>pipe_length</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>log_Kpw_ref</c:v>
+                  <c:v>length_fraction_middle_point</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>length_plume</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>length_fraction_middle_point</c:v>
+                  <c:v>inner_diameter</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>pipe_length</c:v>
+                  <c:v>flow_rate</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>flow_rate</c:v>
+                  <c:v>log_Dp_ref</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>log_Kpw_ref</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>DIFFUSION_A_C</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>PARTITIONING_A_C</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>partitioning_enthalpie</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>activattion_energy</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>inner_diameter</c:v>
+                  <c:v>partitioning_enthalpie</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ah_analysis!$K$3:$K$14</c:f>
+              <c:f>ah_analysis!$K$5:$K$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
@@ -919,37 +961,37 @@
                   <c:v>214.23463342892109</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32949374261091102</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21019190958814193</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-0.13562299486053664</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.32949374261091102</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.21019190958814193</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>-5.4224094103023313E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>-5.9560697876283264E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-6.2226941846173056E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-0.12823895768011162</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.13562299486053664</c:v>
+                  <c:v>-6.2226941846173056E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1191,7 +1233,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ah_analysis!$B$3</c:f>
+              <c:f>ah_analysis!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1212,169 +1254,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>ah_analysis!$H$1:$K$2</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="4"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>median + 1% (%)</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>median + stdev (%)</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>median + 1% (%)</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>median + stdev (%)</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>mean</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>peak</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>ah_analysis!$H$3:$K$3</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="0.0000">
-                  <c:v>1.0000041339599974E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>214.31220342337801</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0000024343072011E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>214.23463342892109</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9C10-473C-96A2-C082EB18A3FD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ah_analysis!$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>log_Dp_ref</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>ah_analysis!$H$1:$K$2</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="4"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>median + 1% (%)</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>median + stdev (%)</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>median + 1% (%)</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>median + stdev (%)</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>mean</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>peak</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>ah_analysis!$H$4:$K$4</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="0.0000">
-                  <c:v>9.9999999999969003E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5692766784704919</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.3078731950581002E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.32949374261091102</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9C10-473C-96A2-C082EB18A3FD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ah_analysis!$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>log_Kpw_ref</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>ah_analysis!$H$1:$K$2</c:f>
+              <c:f>ah_analysis!$H$3:$K$4</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="4"/>
                 <c:lvl>
@@ -1409,43 +1289,43 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="0.0000">
-                  <c:v>1.0000000000000009E-2</c:v>
+                  <c:v>1.0000041339599974E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.060289114984458</c:v>
+                  <c:v>214.31220342337801</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6292432221419748E-3</c:v>
+                  <c:v>1.0000024343072011E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21019190958814193</c:v>
+                  <c:v>214.23463342892109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9C10-473C-96A2-C082EB18A3FD}"/>
+              <c16:uniqueId val="{00000000-9C10-473C-96A2-C082EB18A3FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>ah_analysis!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>length_plume</c:v>
+                  <c:v>pipe_length</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1455,7 +1335,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>ah_analysis!$H$1:$K$2</c:f>
+              <c:f>ah_analysis!$H$3:$K$4</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="4"/>
                 <c:lvl>
@@ -1490,10 +1370,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="0.0000">
-                  <c:v>7.7622235370029546E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.89096548582243895</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1506,13 +1386,13 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9C10-473C-96A2-C082EB18A3FD}"/>
+              <c16:uniqueId val="{00000001-9C10-473C-96A2-C082EB18A3FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>ah_analysis!$B$7</c:f>
@@ -1526,7 +1406,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1536,7 +1416,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>ah_analysis!$H$1:$K$2</c:f>
+              <c:f>ah_analysis!$H$3:$K$4</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="4"/>
                 <c:lvl>
@@ -1587,27 +1467,27 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9C10-473C-96A2-C082EB18A3FD}"/>
+              <c16:uniqueId val="{00000002-9C10-473C-96A2-C082EB18A3FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>ah_analysis!$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>pipe_length</c:v>
+                  <c:v>length_plume</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1617,7 +1497,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>ah_analysis!$H$1:$K$2</c:f>
+              <c:f>ah_analysis!$H$3:$K$4</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="4"/>
                 <c:lvl>
@@ -1652,10 +1532,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="0.0000">
-                  <c:v>0</c:v>
+                  <c:v>7.7622235370029546E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.89096548582243895</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1668,29 +1548,27 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-9C10-473C-96A2-C082EB18A3FD}"/>
+              <c16:uniqueId val="{00000003-9C10-473C-96A2-C082EB18A3FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:idx val="4"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>ah_analysis!$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>flow_rate</c:v>
+                  <c:v>inner_diameter</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1700,7 +1578,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>ah_analysis!$H$1:$K$2</c:f>
+              <c:f>ah_analysis!$H$3:$K$4</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="4"/>
                 <c:lvl>
@@ -1735,45 +1613,43 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="0.0000">
-                  <c:v>-9.8993108362198656E-3</c:v>
+                  <c:v>1.0000000000000009E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.37248915446017083</c:v>
+                  <c:v>0.15688539881149599</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-9.9009900990103539E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-0.13562299486053664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-9C10-473C-96A2-C082EB18A3FD}"/>
+              <c16:uniqueId val="{00000004-9C10-473C-96A2-C082EB18A3FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:idx val="5"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>ah_analysis!$B$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DIFFUSION_A_C</c:v>
+                  <c:v>flow_rate</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1783,7 +1659,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>ah_analysis!$H$1:$K$2</c:f>
+              <c:f>ah_analysis!$H$3:$K$4</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="4"/>
                 <c:lvl>
@@ -1818,43 +1694,43 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="0.0000">
-                  <c:v>-8.9846846008283521E-3</c:v>
+                  <c:v>-9.8993108362198656E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8.4431097007306444E-2</c:v>
+                  <c:v>-0.37248915446017083</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5.6883187796206158E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.4224094103023313E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-9C10-473C-96A2-C082EB18A3FD}"/>
+              <c16:uniqueId val="{00000005-9C10-473C-96A2-C082EB18A3FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:idx val="6"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>ah_analysis!$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PARTITIONING_A_C</c:v>
+                  <c:v>log_Dp_ref</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3">
+              <a:schemeClr val="accent1">
                 <a:lumMod val="60000"/>
               </a:schemeClr>
             </a:solidFill>
@@ -1866,7 +1742,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>ah_analysis!$H$1:$K$2</c:f>
+              <c:f>ah_analysis!$H$3:$K$4</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="4"/>
                 <c:lvl>
@@ -1901,43 +1777,43 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="0.0000">
-                  <c:v>-2.3907392281150575E-3</c:v>
+                  <c:v>9.9999999999969003E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.20759470666384816</c:v>
+                  <c:v>0.5692766784704919</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.3152103988262098E-4</c:v>
+                  <c:v>6.3078731950581002E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.9560697876283264E-2</c:v>
+                  <c:v>0.32949374261091102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-9C10-473C-96A2-C082EB18A3FD}"/>
+              <c16:uniqueId val="{00000006-9C10-473C-96A2-C082EB18A3FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
+          <c:idx val="7"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
               <c:f>ah_analysis!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>partitioning_enthalpie</c:v>
+                  <c:v>log_Kpw_ref</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4">
+              <a:schemeClr val="accent2">
                 <a:lumMod val="60000"/>
               </a:schemeClr>
             </a:solidFill>
@@ -1949,7 +1825,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>ah_analysis!$H$1:$K$2</c:f>
+              <c:f>ah_analysis!$H$3:$K$4</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="4"/>
                 <c:lvl>
@@ -1984,43 +1860,43 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="0.0000">
-                  <c:v>-1.645131120247445E-3</c:v>
+                  <c:v>1.0000000000000009E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.21607330305566463</c:v>
+                  <c:v>1.060289114984458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.3439676924172943E-4</c:v>
+                  <c:v>2.6292432221419748E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-6.2226941846173056E-2</c:v>
+                  <c:v>0.21019190958814193</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-9C10-473C-96A2-C082EB18A3FD}"/>
+              <c16:uniqueId val="{00000007-9C10-473C-96A2-C082EB18A3FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
+          <c:idx val="8"/>
+          <c:order val="8"/>
           <c:tx>
             <c:strRef>
               <c:f>ah_analysis!$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>activattion_energy</c:v>
+                  <c:v>DIFFUSION_A_C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5">
+              <a:schemeClr val="accent3">
                 <a:lumMod val="60000"/>
               </a:schemeClr>
             </a:solidFill>
@@ -2032,7 +1908,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>ah_analysis!$H$1:$K$2</c:f>
+              <c:f>ah_analysis!$H$3:$K$4</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="4"/>
                 <c:lvl>
@@ -2067,43 +1943,43 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="0.0000">
-                  <c:v>-6.9985282468018051E-3</c:v>
+                  <c:v>-8.9846846008283521E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.19519123698429797</c:v>
+                  <c:v>-8.4431097007306444E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.4294663249221378E-3</c:v>
+                  <c:v>-5.6883187796206158E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.12823895768011162</c:v>
+                  <c:v>-5.4224094103023313E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-9C10-473C-96A2-C082EB18A3FD}"/>
+              <c16:uniqueId val="{00000008-9C10-473C-96A2-C082EB18A3FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
+          <c:idx val="9"/>
+          <c:order val="9"/>
           <c:tx>
             <c:strRef>
               <c:f>ah_analysis!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>inner_diameter</c:v>
+                  <c:v>PARTITIONING_A_C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6">
+              <a:schemeClr val="accent4">
                 <a:lumMod val="60000"/>
               </a:schemeClr>
             </a:solidFill>
@@ -2115,7 +1991,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>ah_analysis!$H$1:$K$2</c:f>
+              <c:f>ah_analysis!$H$3:$K$4</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="4"/>
                 <c:lvl>
@@ -2150,16 +2026,182 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="0.0000">
-                  <c:v>1.0000000000000009E-2</c:v>
+                  <c:v>-2.3907392281150575E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15688539881149599</c:v>
+                  <c:v>-0.20759470666384816</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.9009900990103539E-3</c:v>
+                  <c:v>-6.3152103988262098E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.13562299486053664</c:v>
+                  <c:v>-5.9560697876283264E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-9C10-473C-96A2-C082EB18A3FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ah_analysis!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>activattion_energy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>ah_analysis!$H$3:$K$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>median + 1% (%)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>median + stdev (%)</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>median + 1% (%)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>median + stdev (%)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>mean</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>peak</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ah_analysis!$H$15:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.0000">
+                  <c:v>-6.9985282468018051E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.19519123698429797</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.4294663249221378E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.12823895768011162</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-9C10-473C-96A2-C082EB18A3FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ah_analysis!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>partitioning_enthalpie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>ah_analysis!$H$3:$K$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>median + 1% (%)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>median + stdev (%)</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>median + 1% (%)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>median + stdev (%)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>mean</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>peak</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ah_analysis!$H$16:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.0000">
+                  <c:v>-1.645131120247445E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.21607330305566463</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.3439676924172943E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.2226941846173056E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2316,7 +2358,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -3525,15 +3567,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1139824</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>79374</xdr:rowOff>
+      <xdr:colOff>1114424</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3564,13 +3606,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3886,790 +3928,978 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF334306-736E-479E-8047-C80D4CE7333D}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:D31"/>
     </sheetView>
     <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="M4" sqref="M4:M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.08984375" customWidth="1"/>
-    <col min="2" max="2" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C1" s="26" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1">
+        <v>3.9487281619356438E-7</v>
+      </c>
+      <c r="E1">
+        <v>3.5199306387294028E-5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2">
+        <f>C1*1000000</f>
+        <v>0.3948728161935644</v>
+      </c>
+      <c r="E2">
+        <f>E1*1000000</f>
+        <v>35.19930638729403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C3" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="H1" s="26" t="s">
+      <c r="F3" s="37"/>
+      <c r="H3" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26" t="s">
+      <c r="I3" s="37"/>
+      <c r="J3" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="26"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C2" s="27" t="s">
+      <c r="K3" s="37"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="G4" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K4" s="26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C5" s="27">
         <v>1.0100000413396</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D5" s="27">
         <v>215.31220342337801</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E5" s="27">
         <v>1.010000024343072</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F5" s="27">
         <v>215.23463342892109</v>
       </c>
-      <c r="H3" s="34">
-        <f>C3-1</f>
+      <c r="G5" s="32">
+        <v>214.12358341627834</v>
+      </c>
+      <c r="H5" s="33">
+        <f t="shared" ref="H5:H16" si="0">C5-1</f>
         <v>1.0000041339599974E-2</v>
       </c>
-      <c r="I3" s="28">
-        <f>D3-1</f>
+      <c r="I5" s="27">
+        <f t="shared" ref="I5:I16" si="1">D5-1</f>
         <v>214.31220342337801</v>
       </c>
-      <c r="J3" s="28">
-        <f>E3-1</f>
+      <c r="J5" s="27">
+        <f t="shared" ref="J5:J16" si="2">E5-1</f>
         <v>1.0000024343072011E-2</v>
       </c>
-      <c r="K3" s="28">
-        <f>F3-1</f>
+      <c r="K5" s="27">
+        <f t="shared" ref="K5:K16" si="3">F5-1</f>
         <v>214.23463342892109</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>7</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="28">
-        <v>1.0099999999999969</v>
-      </c>
-      <c r="D4" s="28">
-        <v>1.5692766784704919</v>
-      </c>
-      <c r="E4" s="28">
-        <v>1.0063078731950581</v>
-      </c>
-      <c r="F4" s="28">
-        <v>1.329493742610911</v>
-      </c>
-      <c r="H4" s="34">
-        <f>C4-1</f>
-        <v>9.9999999999969003E-3</v>
-      </c>
-      <c r="I4" s="28">
-        <f>D4-1</f>
-        <v>0.5692766784704919</v>
-      </c>
-      <c r="J4" s="28">
-        <f>E4-1</f>
-        <v>6.3078731950581002E-3</v>
-      </c>
-      <c r="K4" s="28">
-        <f>F4-1</f>
-        <v>0.32949374261091102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>8</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="28">
-        <v>1.01</v>
-      </c>
-      <c r="D5" s="28">
-        <v>2.060289114984458</v>
-      </c>
-      <c r="E5" s="28">
-        <v>1.002629243222142</v>
-      </c>
-      <c r="F5" s="28">
-        <v>1.2101919095881419</v>
-      </c>
-      <c r="H5" s="34">
-        <f>C5-1</f>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="I5" s="28">
-        <f>D5-1</f>
-        <v>1.060289114984458</v>
-      </c>
-      <c r="J5" s="28">
-        <f>E5-1</f>
-        <v>2.6292432221419748E-3</v>
-      </c>
-      <c r="K5" s="28">
-        <f>F5-1</f>
-        <v>0.21019190958814193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="28">
-        <v>1.007762223537003</v>
-      </c>
-      <c r="D6" s="28">
-        <v>1.890965485822439</v>
-      </c>
-      <c r="E6" s="28">
+        <v>2</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="27">
         <v>1</v>
       </c>
-      <c r="F6" s="28">
+      <c r="D6" s="27">
         <v>1</v>
       </c>
-      <c r="H6" s="34">
-        <f>C6-1</f>
-        <v>7.7622235370029546E-3</v>
-      </c>
-      <c r="I6" s="28">
-        <f>D6-1</f>
-        <v>0.89096548582243895</v>
-      </c>
-      <c r="J6" s="28">
-        <f>E6-1</f>
+      <c r="E6" s="27">
+        <v>1</v>
+      </c>
+      <c r="F6" s="27">
+        <v>1</v>
+      </c>
+      <c r="G6" s="27">
+        <v>1.4534504746166208</v>
+      </c>
+      <c r="H6" s="33">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K6" s="28">
-        <f>F6-1</f>
+      <c r="I6" s="27">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J6" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="27">
         <v>1.0022377764629959</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="27">
         <v>1.1304694592358739</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="27">
         <v>1</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="27">
         <v>0.99999999999999978</v>
       </c>
-      <c r="H7" s="34">
-        <f>C7-1</f>
+      <c r="G7" s="27">
+        <v>0.58309518948452999</v>
+      </c>
+      <c r="H7" s="33">
+        <f t="shared" si="0"/>
         <v>2.237776462995944E-3</v>
       </c>
-      <c r="I7" s="28">
-        <f>D7-1</f>
+      <c r="I7" s="27">
+        <f t="shared" si="1"/>
         <v>0.13046945923587394</v>
       </c>
-      <c r="J7" s="28">
-        <f>E7-1</f>
+      <c r="J7" s="27">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="28">
-        <f>F7-1</f>
+      <c r="K7" s="27">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="27">
+        <v>1.007762223537003</v>
+      </c>
+      <c r="D8" s="27">
+        <v>1.890965485822439</v>
+      </c>
+      <c r="E8" s="27">
+        <v>1</v>
+      </c>
+      <c r="F8" s="27">
+        <v>1</v>
+      </c>
+      <c r="G8" s="27">
+        <v>1.14804029020608</v>
+      </c>
+      <c r="H8" s="33">
+        <f t="shared" si="0"/>
+        <v>7.7622235370029546E-3</v>
+      </c>
+      <c r="I8" s="27">
+        <f t="shared" si="1"/>
+        <v>0.89096548582243895</v>
+      </c>
+      <c r="J8" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="27">
+        <v>1.01</v>
+      </c>
+      <c r="D9" s="27">
+        <v>1.156885398811496</v>
+      </c>
+      <c r="E9" s="27">
+        <v>0.99009900990098965</v>
+      </c>
+      <c r="F9" s="27">
+        <v>0.86437700513946336</v>
+      </c>
+      <c r="G9" s="27">
+        <v>0.15690259464810058</v>
+      </c>
+      <c r="H9" s="33">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="I9" s="27">
+        <f t="shared" si="1"/>
+        <v>0.15688539881149599</v>
+      </c>
+      <c r="J9" s="27">
+        <f t="shared" si="2"/>
+        <v>-9.9009900990103539E-3</v>
+      </c>
+      <c r="K9" s="27">
+        <f t="shared" si="3"/>
+        <v>-0.13562299486053664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="27">
+        <v>0.99010068916378013</v>
+      </c>
+      <c r="D10" s="27">
+        <v>0.62751084553982917</v>
+      </c>
+      <c r="E10" s="27">
+        <v>1</v>
+      </c>
+      <c r="F10" s="27">
+        <v>1</v>
+      </c>
+      <c r="G10" s="27">
+        <v>0.59365861869895875</v>
+      </c>
+      <c r="H10" s="33">
+        <f t="shared" si="0"/>
+        <v>-9.8993108362198656E-3</v>
+      </c>
+      <c r="I10" s="27">
+        <f t="shared" si="1"/>
+        <v>-0.37248915446017083</v>
+      </c>
+      <c r="J10" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="27">
+        <v>1.0099999999999969</v>
+      </c>
+      <c r="D11" s="27">
+        <v>1.5692766784704919</v>
+      </c>
+      <c r="E11" s="27">
+        <v>1.0063078731950581</v>
+      </c>
+      <c r="F11" s="27">
+        <v>1.329493742610911</v>
+      </c>
+      <c r="G11" s="27">
+        <v>-1.6949879799790468E-2</v>
+      </c>
+      <c r="H11" s="33">
+        <f t="shared" si="0"/>
+        <v>9.9999999999969003E-3</v>
+      </c>
+      <c r="I11" s="27">
+        <f t="shared" si="1"/>
+        <v>0.5692766784704919</v>
+      </c>
+      <c r="J11" s="27">
+        <f t="shared" si="2"/>
+        <v>6.3078731950581002E-3</v>
+      </c>
+      <c r="K11" s="27">
+        <f t="shared" si="3"/>
+        <v>0.32949374261091102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="27">
+        <v>1.01</v>
+      </c>
+      <c r="D12" s="27">
+        <v>2.060289114984458</v>
+      </c>
+      <c r="E12" s="27">
+        <v>1.002629243222142</v>
+      </c>
+      <c r="F12" s="27">
+        <v>1.2101919095881419</v>
+      </c>
+      <c r="G12" s="27">
+        <v>0.19056248748186769</v>
+      </c>
+      <c r="H12" s="33">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="I12" s="27">
+        <f t="shared" si="1"/>
+        <v>1.060289114984458</v>
+      </c>
+      <c r="J12" s="27">
+        <f t="shared" si="2"/>
+        <v>2.6292432221419748E-3</v>
+      </c>
+      <c r="K12" s="27">
+        <f t="shared" si="3"/>
+        <v>0.21019190958814193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="27">
+        <v>0.99101531539917165</v>
+      </c>
+      <c r="D13" s="27">
+        <v>0.91556890299269356</v>
+      </c>
+      <c r="E13" s="27">
+        <v>0.99431168122037938</v>
+      </c>
+      <c r="F13" s="27">
+        <v>0.94577590589697669</v>
+      </c>
+      <c r="G13" s="27">
+        <v>9.7728194428506596E-2</v>
+      </c>
+      <c r="H13" s="33">
+        <f t="shared" si="0"/>
+        <v>-8.9846846008283521E-3</v>
+      </c>
+      <c r="I13" s="27">
+        <f t="shared" si="1"/>
+        <v>-8.4431097007306444E-2</v>
+      </c>
+      <c r="J13" s="27">
+        <f t="shared" si="2"/>
+        <v>-5.6883187796206158E-3</v>
+      </c>
+      <c r="K13" s="27">
+        <f t="shared" si="3"/>
+        <v>-5.4224094103023313E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="27">
+        <v>0.99760926077188494</v>
+      </c>
+      <c r="D14" s="27">
+        <v>0.79240529333615184</v>
+      </c>
+      <c r="E14" s="27">
+        <v>0.99936847896011738</v>
+      </c>
+      <c r="F14" s="27">
+        <v>0.94043930212371674</v>
+      </c>
+      <c r="G14" s="27">
+        <v>0.97207810998674093</v>
+      </c>
+      <c r="H14" s="33">
+        <f t="shared" si="0"/>
+        <v>-2.3907392281150575E-3</v>
+      </c>
+      <c r="I14" s="27">
+        <f t="shared" si="1"/>
+        <v>-0.20759470666384816</v>
+      </c>
+      <c r="J14" s="27">
+        <f t="shared" si="2"/>
+        <v>-6.3152103988262098E-4</v>
+      </c>
+      <c r="K14" s="27">
+        <f t="shared" si="3"/>
+        <v>-5.9560697876283264E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="27">
+        <v>0.99300147175319819</v>
+      </c>
+      <c r="D15" s="27">
+        <v>0.80480876301570203</v>
+      </c>
+      <c r="E15" s="27">
+        <v>0.99557053367507786</v>
+      </c>
+      <c r="F15" s="27">
+        <v>0.87176104231988838</v>
+      </c>
+      <c r="G15" s="27">
+        <v>0.30914729205473973</v>
+      </c>
+      <c r="H15" s="33">
+        <f t="shared" si="0"/>
+        <v>-6.9985282468018051E-3</v>
+      </c>
+      <c r="I15" s="27">
+        <f t="shared" si="1"/>
+        <v>-0.19519123698429797</v>
+      </c>
+      <c r="J15" s="27">
+        <f t="shared" si="2"/>
+        <v>-4.4294663249221378E-3</v>
+      </c>
+      <c r="K15" s="27">
+        <f t="shared" si="3"/>
+        <v>-0.12823895768011162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="27">
+        <v>0.99835486887975255</v>
+      </c>
+      <c r="D16" s="27">
+        <v>0.78392669694433537</v>
+      </c>
+      <c r="E16" s="27">
+        <v>0.99956560323075827</v>
+      </c>
+      <c r="F16" s="27">
+        <v>0.93777305815382694</v>
+      </c>
+      <c r="G16" s="27">
+        <v>1.4786791855504049</v>
+      </c>
+      <c r="H16" s="33">
+        <f t="shared" si="0"/>
+        <v>-1.645131120247445E-3</v>
+      </c>
+      <c r="I16" s="27">
+        <f t="shared" si="1"/>
+        <v>-0.21607330305566463</v>
+      </c>
+      <c r="J16" s="27">
+        <f t="shared" si="2"/>
+        <v>-4.3439676924172943E-4</v>
+      </c>
+      <c r="K16" s="27">
+        <f t="shared" si="3"/>
+        <v>-6.2226941846173056E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="F19" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="31">
+        <v>6.0595855345002368E-3</v>
+      </c>
+      <c r="D20" s="27">
+        <v>1.297500168664635</v>
+      </c>
+      <c r="E20" s="31">
+        <v>6.1201813898452391E-3</v>
+      </c>
+      <c r="F20" s="31">
+        <v>1.3035597541991351</v>
+      </c>
+      <c r="G20" s="32">
+        <f>D20/C20</f>
+        <v>214.12358341627834</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="28">
-        <v>1</v>
-      </c>
-      <c r="D8" s="28">
-        <v>1</v>
-      </c>
-      <c r="E8" s="28">
-        <v>1</v>
-      </c>
-      <c r="F8" s="28">
-        <v>1</v>
-      </c>
-      <c r="H8" s="34">
-        <f>C8-1</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="28">
-        <f>D8-1</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="28">
-        <f>E8-1</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="28">
-        <f>F8-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="C21" s="31">
+        <v>6.9097957299999999</v>
+      </c>
+      <c r="D21" s="27">
+        <v>10.0430458832724</v>
+      </c>
+      <c r="E21" s="31">
+        <v>6.9788936873000003</v>
+      </c>
+      <c r="F21" s="31">
+        <v>16.952841613272401</v>
+      </c>
+      <c r="G21" s="27">
+        <f t="shared" ref="G21:G31" si="4">D21/C21</f>
+        <v>1.4534504746166208</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="C22" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="27">
+        <v>0.29154759474226499</v>
+      </c>
+      <c r="E22" s="31">
+        <v>0.505</v>
+      </c>
+      <c r="F22" s="31">
+        <v>0.79154759474226499</v>
+      </c>
+      <c r="G22" s="27">
+        <f t="shared" si="4"/>
+        <v>0.58309518948452999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="31">
+        <v>3.4687215927764119</v>
+      </c>
+      <c r="D23" s="27">
+        <v>3.982232144015128</v>
+      </c>
+      <c r="E23" s="31">
+        <v>3.5034088087041759</v>
+      </c>
+      <c r="F23" s="31">
+        <v>7.4509537367915399</v>
+      </c>
+      <c r="G23" s="27">
+        <f t="shared" si="4"/>
+        <v>1.14804029020608</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="33">
+        <v>1.960000038E-2</v>
+      </c>
+      <c r="D24" s="33">
+        <v>3.075290914725757E-3</v>
+      </c>
+      <c r="E24" s="31">
+        <v>1.97960003838E-2</v>
+      </c>
+      <c r="F24" s="31">
+        <v>2.2675291294725761E-2</v>
+      </c>
+      <c r="G24" s="27">
+        <f t="shared" si="4"/>
+        <v>0.15690259464810058</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="28">
-        <v>0.99010068916378013</v>
-      </c>
-      <c r="D9" s="28">
-        <v>0.62751084553982917</v>
-      </c>
-      <c r="E9" s="28">
-        <v>1</v>
-      </c>
-      <c r="F9" s="28">
-        <v>1</v>
-      </c>
-      <c r="H9" s="34">
-        <f>C9-1</f>
-        <v>-9.8993108362198656E-3</v>
-      </c>
-      <c r="I9" s="28">
-        <f>D9-1</f>
-        <v>-0.37248915446017083</v>
-      </c>
-      <c r="J9" s="28">
-        <f>E9-1</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="28">
-        <f>F9-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="29" t="s">
+      <c r="C25" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="D25" s="27">
+        <v>0.14841465467473969</v>
+      </c>
+      <c r="E25" s="31">
+        <v>0.2525</v>
+      </c>
+      <c r="F25" s="31">
+        <v>0.39841465467473969</v>
+      </c>
+      <c r="G25" s="27">
+        <f t="shared" si="4"/>
+        <v>0.59365861869895875</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="27">
+        <v>-11.54717333172</v>
+      </c>
+      <c r="D26" s="27">
+        <v>0.19572320000000001</v>
+      </c>
+      <c r="E26" s="27">
+        <v>-11.54285195793736</v>
+      </c>
+      <c r="F26" s="27">
+        <v>-11.35145013172</v>
+      </c>
+      <c r="G26" s="27">
+        <f t="shared" si="4"/>
+        <v>-1.6949879799790468E-2</v>
+      </c>
+      <c r="I26" s="34"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="27">
+        <v>1.64761</v>
+      </c>
+      <c r="D27" s="27">
+        <v>0.31397266000000001</v>
+      </c>
+      <c r="E27" s="27">
+        <v>1.651931373782642</v>
+      </c>
+      <c r="F27" s="27">
+        <v>1.9615826599999999</v>
+      </c>
+      <c r="G27" s="27">
+        <f t="shared" si="4"/>
+        <v>0.19056248748186769</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="28">
-        <v>0.99101531539917165</v>
-      </c>
-      <c r="D10" s="28">
-        <v>0.91556890299269356</v>
-      </c>
-      <c r="E10" s="28">
-        <v>0.99431168122037938</v>
-      </c>
-      <c r="F10" s="28">
-        <v>0.94577590589697669</v>
-      </c>
-      <c r="H10" s="34">
-        <f>C10-1</f>
-        <v>-8.9846846008283521E-3</v>
-      </c>
-      <c r="I10" s="28">
-        <f>D10-1</f>
-        <v>-8.4431097007306444E-2</v>
-      </c>
-      <c r="J10" s="28">
-        <f>E10-1</f>
-        <v>-5.6883187796206158E-3</v>
-      </c>
-      <c r="K10" s="28">
-        <f>F10-1</f>
-        <v>-5.4224094103023313E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="C28" s="31">
+        <v>0.78407720973558304</v>
+      </c>
+      <c r="D28" s="27">
+        <v>7.6626449999999999E-2</v>
+      </c>
+      <c r="E28" s="31">
+        <v>0.79191798183293882</v>
+      </c>
+      <c r="F28" s="31">
+        <v>0.86070365973558305</v>
+      </c>
+      <c r="G28" s="27">
+        <f t="shared" si="4"/>
+        <v>9.7728194428506596E-2</v>
+      </c>
+      <c r="I28" s="34"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="31">
+        <v>0.10396501984946301</v>
+      </c>
+      <c r="D29" s="27">
+        <v>0.10106212000000001</v>
+      </c>
+      <c r="E29" s="31">
+        <v>0.1050046700479576</v>
+      </c>
+      <c r="F29" s="31">
+        <v>0.205027139849463</v>
+      </c>
+      <c r="G29" s="27">
+        <f t="shared" si="4"/>
+        <v>0.97207810998674093</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="31">
+        <v>38.156061538172388</v>
+      </c>
+      <c r="D30" s="27">
+        <v>11.795843100000001</v>
+      </c>
+      <c r="E30" s="31">
+        <v>38.537622153554118</v>
+      </c>
+      <c r="F30" s="31">
+        <v>49.951904638172387</v>
+      </c>
+      <c r="G30" s="27">
+        <f t="shared" si="4"/>
+        <v>0.30914729205473973</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="31">
+        <v>8.9430527116520544</v>
+      </c>
+      <c r="D31" s="27">
+        <v>13.2239059</v>
+      </c>
+      <c r="E31" s="31">
+        <v>9.0324832387685756</v>
+      </c>
+      <c r="F31" s="31">
+        <v>22.16695861165206</v>
+      </c>
+      <c r="G31" s="27">
+        <f t="shared" si="4"/>
+        <v>1.4786791855504049</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>38</v>
+      </c>
+      <c r="F84" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>37</v>
+      </c>
+      <c r="F85" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>36</v>
+      </c>
+      <c r="F86">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>-12.42021640338319</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>-12.397940008672037</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>-12.397940008672037</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>-12.004364805402449</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>-11.978810700930062</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>-11.96657624451305</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>-11.958607314841775</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>-11.920818753952375</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>-11.823908740944319</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>-11.698970004336019</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="28">
-        <v>0.99760926077188494</v>
-      </c>
-      <c r="D11" s="28">
-        <v>0.79240529333615184</v>
-      </c>
-      <c r="E11" s="28">
-        <v>0.99936847896011738</v>
-      </c>
-      <c r="F11" s="28">
-        <v>0.94043930212371674</v>
-      </c>
-      <c r="H11" s="34">
-        <f>C11-1</f>
-        <v>-2.3907392281150575E-3</v>
-      </c>
-      <c r="I11" s="28">
-        <f>D11-1</f>
-        <v>-0.20759470666384816</v>
-      </c>
-      <c r="J11" s="28">
-        <f>E11-1</f>
-        <v>-6.3152103988262098E-4</v>
-      </c>
-      <c r="K11" s="28">
-        <f>F11-1</f>
-        <v>-5.9560697876283264E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="28">
-        <v>0.99835486887975255</v>
-      </c>
-      <c r="D12" s="28">
-        <v>0.78392669694433537</v>
-      </c>
-      <c r="E12" s="28">
-        <v>0.99956560323075827</v>
-      </c>
-      <c r="F12" s="28">
-        <v>0.93777305815382694</v>
-      </c>
-      <c r="H12" s="34">
-        <f>C12-1</f>
-        <v>-1.645131120247445E-3</v>
-      </c>
-      <c r="I12" s="28">
-        <f>D12-1</f>
-        <v>-0.21607330305566463</v>
-      </c>
-      <c r="J12" s="28">
-        <f>E12-1</f>
-        <v>-4.3439676924172943E-4</v>
-      </c>
-      <c r="K12" s="28">
-        <f>F12-1</f>
-        <v>-6.2226941846173056E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13">
+      <c r="C97" s="35">
+        <v>-11.54717333172</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>-11.522878745280337</v>
+      </c>
+      <c r="E98" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="28">
-        <v>0.99300147175319819</v>
-      </c>
-      <c r="D13" s="28">
-        <v>0.80480876301570203</v>
-      </c>
-      <c r="E13" s="28">
-        <v>0.99557053367507786</v>
-      </c>
-      <c r="F13" s="28">
-        <v>0.87176104231988838</v>
-      </c>
-      <c r="H13" s="34">
-        <f>C13-1</f>
-        <v>-6.9985282468018051E-3</v>
-      </c>
-      <c r="I13" s="28">
-        <f>D13-1</f>
-        <v>-0.19519123698429797</v>
-      </c>
-      <c r="J13" s="28">
-        <f>E13-1</f>
-        <v>-4.4294663249221378E-3</v>
-      </c>
-      <c r="K13" s="28">
-        <f>F13-1</f>
-        <v>-0.12823895768011162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="28">
-        <v>1.01</v>
-      </c>
-      <c r="D14" s="28">
-        <v>1.156885398811496</v>
-      </c>
-      <c r="E14" s="28">
-        <v>0.99009900990098965</v>
-      </c>
-      <c r="F14" s="28">
-        <v>0.86437700513946336</v>
-      </c>
-      <c r="H14" s="34">
-        <f>C14-1</f>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="I14" s="28">
-        <f>D14-1</f>
-        <v>0.15688539881149599</v>
-      </c>
-      <c r="J14" s="28">
-        <f>E14-1</f>
-        <v>-9.9009900990103539E-3</v>
-      </c>
-      <c r="K14" s="28">
-        <f>F14-1</f>
-        <v>-0.13562299486053664</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C17" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B18" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="32">
-        <v>6.0595855345002368E-3</v>
-      </c>
-      <c r="D18" s="28">
-        <v>1.297500168664635</v>
-      </c>
-      <c r="E18" s="32">
-        <v>6.1201813898452391E-3</v>
-      </c>
-      <c r="F18" s="32">
-        <v>1.3035597541991351</v>
-      </c>
-      <c r="G18" s="33">
-        <f>D18/C18</f>
-        <v>214.12358341627834</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="32">
-        <v>6.9097957299999999</v>
-      </c>
-      <c r="D19" s="28">
-        <v>10.0430458832724</v>
-      </c>
-      <c r="E19" s="32">
-        <v>6.9788936873000003</v>
-      </c>
-      <c r="F19" s="32">
-        <v>16.952841613272401</v>
-      </c>
-      <c r="G19" s="28">
-        <f t="shared" ref="G19:G29" si="0">D19/C19</f>
-        <v>1.4534504746166208</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B20" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="D20" s="28">
-        <v>0.29154759474226499</v>
-      </c>
-      <c r="E20" s="32">
-        <v>0.505</v>
-      </c>
-      <c r="F20" s="32">
-        <v>0.79154759474226499</v>
-      </c>
-      <c r="G20" s="28">
-        <f t="shared" si="0"/>
-        <v>0.58309518948452999</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B21" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="32">
-        <v>3.4687215927764119</v>
-      </c>
-      <c r="D21" s="28">
-        <v>3.982232144015128</v>
-      </c>
-      <c r="E21" s="32">
-        <v>3.5034088087041759</v>
-      </c>
-      <c r="F21" s="32">
-        <v>7.4509537367915399</v>
-      </c>
-      <c r="G21" s="28">
-        <f t="shared" si="0"/>
-        <v>1.14804029020608</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B22" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="34">
-        <v>1.960000038E-2</v>
-      </c>
-      <c r="D22" s="34">
-        <v>3.075290914725757E-3</v>
-      </c>
-      <c r="E22" s="32">
-        <v>1.97960003838E-2</v>
-      </c>
-      <c r="F22" s="32">
-        <v>2.2675291294725761E-2</v>
-      </c>
-      <c r="G22" s="28">
-        <f t="shared" si="0"/>
-        <v>0.15690259464810058</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B23" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="32">
-        <v>0.25</v>
-      </c>
-      <c r="D23" s="28">
-        <v>0.14841465467473969</v>
-      </c>
-      <c r="E23" s="32">
-        <v>0.2525</v>
-      </c>
-      <c r="F23" s="32">
-        <v>0.39841465467473969</v>
-      </c>
-      <c r="G23" s="28">
-        <f t="shared" si="0"/>
-        <v>0.59365861869895875</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B24" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="28">
-        <v>-11.54717333172</v>
-      </c>
-      <c r="D24" s="28">
-        <v>0.19572320000000001</v>
-      </c>
-      <c r="E24" s="28">
-        <v>-11.54285195793736</v>
-      </c>
-      <c r="F24" s="28">
-        <v>-11.35145013172</v>
-      </c>
-      <c r="G24" s="28">
-        <f t="shared" si="0"/>
-        <v>-1.6949879799790468E-2</v>
-      </c>
-      <c r="I24" s="35"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B25" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="28">
+      <c r="F98" s="35">
         <v>1.64761</v>
       </c>
-      <c r="D25" s="28">
-        <v>0.31397266000000001</v>
-      </c>
-      <c r="E25" s="28">
-        <v>1.651931373782642</v>
-      </c>
-      <c r="F25" s="28">
-        <v>1.9615826599999999</v>
-      </c>
-      <c r="G25" s="28">
-        <f t="shared" si="0"/>
-        <v>0.19056248748186769</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B26" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="32">
-        <v>0.78407720973558304</v>
-      </c>
-      <c r="D26" s="28">
-        <v>7.6626449999999999E-2</v>
-      </c>
-      <c r="E26" s="32">
-        <v>0.79191798183293882</v>
-      </c>
-      <c r="F26" s="32">
-        <v>0.86070365973558305</v>
-      </c>
-      <c r="G26" s="28">
-        <f t="shared" si="0"/>
-        <v>9.7728194428506596E-2</v>
-      </c>
-      <c r="I26" s="35"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B27" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="32">
-        <v>0.10396501984946301</v>
-      </c>
-      <c r="D27" s="28">
-        <v>0.10106212000000001</v>
-      </c>
-      <c r="E27" s="32">
-        <v>0.1050046700479576</v>
-      </c>
-      <c r="F27" s="32">
-        <v>0.205027139849463</v>
-      </c>
-      <c r="G27" s="28">
-        <f t="shared" si="0"/>
-        <v>0.97207810998674093</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B28" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="32">
-        <v>38.156061538172388</v>
-      </c>
-      <c r="D28" s="28">
-        <v>11.795843100000001</v>
-      </c>
-      <c r="E28" s="32">
-        <v>38.537622153554118</v>
-      </c>
-      <c r="F28" s="32">
-        <v>49.951904638172387</v>
-      </c>
-      <c r="G28" s="28">
-        <f t="shared" si="0"/>
-        <v>0.30914729205473973</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B29" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="32">
-        <v>8.9430527116520544</v>
-      </c>
-      <c r="D29" s="28">
-        <v>13.2239059</v>
-      </c>
-      <c r="E29" s="32">
-        <v>9.0324832387685756</v>
-      </c>
-      <c r="F29" s="32">
-        <v>22.16695861165206</v>
-      </c>
-      <c r="G29" s="28">
-        <f t="shared" si="0"/>
-        <v>1.4786791855504049</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K2" xr:uid="{66E23B61-E446-4314-B242-07BD6AA95559}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K14">
-      <sortCondition descending="1" ref="K2"/>
+  <autoFilter ref="A4:K4" xr:uid="{66E23B61-E446-4314-B242-07BD6AA95559}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:K16">
+      <sortCondition ref="A4"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B83:E96">
+    <sortCondition ref="C85:C96"/>
+  </sortState>
   <mergeCells count="4">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:C14">
+  <conditionalFormatting sqref="C5:C16">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D16">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E16">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -4681,7 +4911,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D14">
+  <conditionalFormatting sqref="F6:F16">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -4693,32 +4923,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E14">
+  <conditionalFormatting sqref="G21:G31">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F14">
+  <conditionalFormatting sqref="G6:G16">
     <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19:G29">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4738,14 +4956,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4759,7 +4977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -4776,7 +4994,7 @@
         <v>1.3035597541991351</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -4793,7 +5011,7 @@
         <v>16.952841613272401</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -4810,7 +5028,7 @@
         <v>0.79154759474226499</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -4827,7 +5045,7 @@
         <v>7.4509537367915399</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -4844,7 +5062,7 @@
         <v>2.2675291294725761E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -4861,7 +5079,7 @@
         <v>0.39841465467473969</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -4878,7 +5096,7 @@
         <v>-11.35145013172</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -4895,7 +5113,7 @@
         <v>1.9615826599999999</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -4912,7 +5130,7 @@
         <v>0.86070365973558305</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -4929,7 +5147,7 @@
         <v>0.205027139849463</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -4946,7 +5164,7 @@
         <v>49.951904638172387</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -4973,22 +5191,22 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
     <sheetView workbookViewId="1">
       <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
@@ -5002,7 +5220,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -5019,7 +5237,7 @@
         <v>1.0100000413396</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -5036,7 +5254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -5053,7 +5271,7 @@
         <v>1.0022377764629959</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -5070,7 +5288,7 @@
         <v>1.007762223537003</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -5087,7 +5305,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -5104,7 +5322,7 @@
         <v>0.99010068916378013</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -5121,7 +5339,7 @@
         <v>1.0099999999999969</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -5138,7 +5356,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -5155,7 +5373,7 @@
         <v>0.99101531539917165</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -5172,7 +5390,7 @@
         <v>0.99760926077188494</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -5189,7 +5407,7 @@
         <v>0.99300147175319819</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -5206,7 +5424,7 @@
         <v>0.99835486887975255</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -5230,16 +5448,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
@@ -5253,7 +5471,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -5270,7 +5488,7 @@
         <v>1.010000024343072</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -5287,7 +5505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -5304,7 +5522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -5321,7 +5539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -5338,7 +5556,7 @@
         <v>0.99009900990098965</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -5355,7 +5573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -5372,7 +5590,7 @@
         <v>1.0063078731950581</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -5389,7 +5607,7 @@
         <v>1.002629243222142</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -5406,7 +5624,7 @@
         <v>0.99431168122037938</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -5423,7 +5641,7 @@
         <v>0.99936847896011738</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -5440,7 +5658,7 @@
         <v>0.99557053367507786</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -5457,7 +5675,7 @@
         <v>0.99956560323075827</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -5472,6 +5690,12 @@
       </c>
       <c r="E14">
         <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>B14*1000</f>
+        <v>3.519930638729403E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5488,12 +5712,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
@@ -5564,7 +5788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -5638,7 +5862,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -5712,7 +5936,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -5786,7 +6010,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -5860,7 +6084,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -5934,7 +6158,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -6008,7 +6232,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -6082,7 +6306,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -6156,7 +6380,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -6230,7 +6454,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -6304,7 +6528,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -6378,7 +6602,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -6452,7 +6676,7 @@
         <v>9.0324832387685756</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -6538,9 +6762,9 @@
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
@@ -6611,7 +6835,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -6685,7 +6909,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -6759,7 +6983,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -6833,7 +7057,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -6907,7 +7131,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -6981,7 +7205,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -7055,7 +7279,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -7129,7 +7353,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -7203,7 +7427,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -7277,7 +7501,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -7351,7 +7575,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -7425,7 +7649,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -7499,7 +7723,7 @@
         <v>9.0324832387685756</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -7585,9 +7809,9 @@
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
@@ -7658,7 +7882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -7732,7 +7956,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -7806,7 +8030,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -7880,7 +8104,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -7954,7 +8178,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -8028,7 +8252,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -8102,7 +8326,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -8176,7 +8400,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -8250,7 +8474,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -8324,7 +8548,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -8398,7 +8622,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -8472,7 +8696,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -8546,7 +8770,7 @@
         <v>22.16695861165206</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -8632,9 +8856,9 @@
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
@@ -8705,7 +8929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -8779,7 +9003,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -8853,7 +9077,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -8927,7 +9151,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -9001,7 +9225,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -9075,7 +9299,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -9149,7 +9373,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -9223,7 +9447,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -9297,7 +9521,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -9371,7 +9595,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -9445,7 +9669,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -9519,7 +9743,7 @@
         <v>8.9430527116520544</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -9593,7 +9817,7 @@
         <v>22.16695861165206</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
